--- a/TestData/data.xlsx
+++ b/TestData/data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="P:\Selenium\Selenium_programs\CA1\TestData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{54999F3E-075C-4A8B-80A3-1CC61A28725B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D5B401B2-1563-49CF-9F64-EB7615484084}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2652" yWindow="1224" windowWidth="17280" windowHeight="8880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Products" sheetId="3" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="26">
   <si>
     <t>emailid</t>
   </si>
@@ -80,6 +80,24 @@
   </si>
   <si>
     <t>shobha08</t>
+  </si>
+  <si>
+    <t>fullname</t>
+  </si>
+  <si>
+    <t>emailaddress</t>
+  </si>
+  <si>
+    <t>phonenumber</t>
+  </si>
+  <si>
+    <t>enquiry</t>
+  </si>
+  <si>
+    <t>sara</t>
+  </si>
+  <si>
+    <t>sara12@gmail.com</t>
   </si>
 </sst>
 </file>
@@ -339,10 +357,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F9E4B162-A62E-4A9B-AA51-F78E290F40A8}">
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:D11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -433,12 +451,46 @@
         <v>19</v>
       </c>
     </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>20</v>
+      </c>
+      <c r="B8" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>21</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C9" s="1"/>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>22</v>
+      </c>
+      <c r="B10">
+        <v>8978956437</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>23</v>
+      </c>
+      <c r="B11">
+        <v>2</v>
+      </c>
+    </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="B2" r:id="rId1" xr:uid="{A9E745F1-A333-4553-BB76-85DCE1960120}"/>
     <hyperlink ref="C2" r:id="rId2" xr:uid="{30576BC3-0AF6-4D6B-B8F5-70EBCC283BE7}"/>
     <hyperlink ref="B6" r:id="rId3" xr:uid="{F06F419A-A5C1-42F0-8A88-32B481418773}"/>
     <hyperlink ref="C6" r:id="rId4" xr:uid="{8E62B242-2213-4DBF-A1BF-67FEFB7EA3B3}"/>
+    <hyperlink ref="B9" r:id="rId5" xr:uid="{934DEAD3-F4A3-42B7-A343-9E0E5B0C111D}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
